--- a/nsfa/nsfa_lm_results.xlsx
+++ b/nsfa/nsfa_lm_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>NSFA_0</t>
   </si>
@@ -111,27 +111,15 @@
     <t>CORTICAL_SUMMARY_change</t>
   </si>
   <si>
-    <t>UW_EF_BL_3months</t>
-  </si>
-  <si>
     <t>UW_EF_slope</t>
   </si>
   <si>
-    <t>ADAS_3MTH_AV45</t>
-  </si>
-  <si>
     <t>ADASslope_postAV45</t>
   </si>
   <si>
-    <t>AVLT_AV45_1_3MTHS</t>
-  </si>
-  <si>
     <t>AVLTslope_postAV45</t>
   </si>
   <si>
-    <t>UW_MEM_BL_3months</t>
-  </si>
-  <si>
     <t>UW_MEM_slope</t>
   </si>
   <si>
@@ -166,13 +154,25 @@
   </si>
   <si>
     <t>fm_base r2</t>
+  </si>
+  <si>
+    <t>ADAS_3MTH_AV45 (higher=worse)</t>
+  </si>
+  <si>
+    <t>AVLT_AV45_1_3MTHS (lower=worse)</t>
+  </si>
+  <si>
+    <t>UW_EF_BL_3months (lower=worse)</t>
+  </si>
+  <si>
+    <t>UW_MEM_BL_3months (lower=worse)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +192,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,7 +227,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -278,8 +285,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -290,9 +305,19 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -321,6 +346,10 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -349,6 +378,10 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,24 +714,24 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="19" style="3" customWidth="1"/>
     <col min="11" max="11" width="24.1640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="24" style="3" customWidth="1"/>
@@ -709,38 +742,38 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -748,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -758,7 +791,7 @@
       <c r="E3" s="4"/>
       <c r="H3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -766,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -774,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -783,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -802,27 +835,27 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="I8" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="14"/>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -830,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -838,11 +871,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -850,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -868,7 +901,7 @@
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M13" s="5"/>
     </row>
@@ -877,30 +910,33 @@
         <v>12</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="12"/>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C16" s="12"/>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
@@ -908,10 +944,10 @@
       </c>
       <c r="G17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -920,10 +956,10 @@
       </c>
       <c r="H18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -932,10 +968,10 @@
       </c>
       <c r="G19" s="6"/>
       <c r="J19" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -943,9 +979,9 @@
         <v>18</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="16"/>
       <c r="M20" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -953,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -961,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -974,7 +1010,7 @@
         <v>22</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -992,11 +1028,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="7"/>
+      <c r="C27" s="12"/>
       <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="12"/>
       <c r="J27" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1004,7 +1045,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1021,7 +1062,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1031,12 +1072,12 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3">
         <v>19.13</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="10">
         <v>13.97</v>
       </c>
       <c r="D32" s="3">
@@ -1054,7 +1095,7 @@
       <c r="H32" s="3">
         <v>8.3699999999999992</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="10">
         <v>19.38</v>
       </c>
       <c r="J32" s="3">
@@ -1072,12 +1113,12 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3">
         <v>12.66</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="10">
         <v>14.79</v>
       </c>
       <c r="D33" s="4">
@@ -1095,7 +1136,7 @@
       <c r="H33" s="3">
         <v>2.98</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="10">
         <v>19.38</v>
       </c>
       <c r="J33" s="3">
@@ -1113,12 +1154,12 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3">
         <v>7.3</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="10">
         <v>14.79</v>
       </c>
       <c r="D34" s="3">
@@ -1136,7 +1177,7 @@
       <c r="H34" s="3">
         <v>2.98</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="10">
         <v>20.51</v>
       </c>
       <c r="J34" s="3">
@@ -1154,25 +1195,25 @@
     </row>
     <row r="39" spans="1:13">
       <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="C41" s="4"/>
+      <c r="C41" s="13"/>
       <c r="G41" s="6"/>
     </row>
     <row r="46" spans="1:13">
       <c r="H46" s="5"/>
     </row>
     <row r="49" spans="3:9">
-      <c r="C49" s="4"/>
+      <c r="C49" s="13"/>
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="3:9">
-      <c r="I50" s="5"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="3:9">
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="I51" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
